--- a/doc/ue_movement.xlsx
+++ b/doc/ue_movement.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F594E14-63F6-48F1-9870-ADAEAB5A3F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2745" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="寻路过程" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>UMovementComponent</t>
   </si>
@@ -263,12 +265,15 @@
   <si>
     <t>设置数据，以后再其TICK里面不断设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPathFollowingComponent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -642,11 +647,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -720,7 +725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -883,10 +888,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
@@ -1047,4 +1052,26 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA7B43D-B8FB-4C15-97F5-57B6900BC716}">
+  <dimension ref="B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_movement.xlsx
+++ b/doc/ue_movement.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F594E14-63F6-48F1-9870-ADAEAB5A3F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5797AE41-431F-41D8-B847-1970D79FF6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="寻路过程" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="鼠标点击地面移动" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
   <si>
     <t>UMovementComponent</t>
   </si>
@@ -268,13 +269,73 @@
   </si>
   <si>
     <t>UPathFollowingComponent</t>
+  </si>
+  <si>
+    <t>FHitResult Hit;</t>
+  </si>
+  <si>
+    <t>GetHitResultUnderCursor(ECC_Visibility, false, Hit);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetHitResultUnderCursorByChannel(UEngineTypes::ConvertToTraceType(ECC_Camera), true, Hit);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也是内部也是完全依赖于物理引擎做的碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UPathFollowingComponent::FollowPathSegment(float DeltaTime)</t>
+  </si>
+  <si>
+    <t>在UPathFollowingComponent的Tick里面不断的设置CharMoveComponent移动，是walking移动，而不是navmesh移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FVector MoveVelocity = (CurrentTarget - CurrentLocation) / DeltaTime;</t>
+  </si>
+  <si>
+    <t>MovementComp-&gt;RequestDirectMove(MoveVelocity, bNotFollowingLastSegment);</t>
+  </si>
+  <si>
+    <t>仅仅修改朝向，且在TickComponent里面直接修改的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本身没复杂逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹移动？？？！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有计算碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在一系列制定点间移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以设置来回移动，例如巡逻NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抛物移动？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR移动？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,6 +387,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF121212"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -347,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -368,6 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -648,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:E10"/>
+  <dimension ref="A3:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -715,6 +783,26 @@
       </c>
       <c r="D10" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -891,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -905,39 +993,77 @@
     <col min="6" max="6" width="53.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
@@ -1058,7 +1184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA7B43D-B8FB-4C15-97F5-57B6900BC716}">
   <dimension ref="B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -1074,4 +1200,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F791FEED-209F-471A-858B-80CB09C01496}">
+  <dimension ref="C6:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="C6" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="C7" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="C8" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_movement.xlsx
+++ b/doc/ue_movement.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5797AE41-431F-41D8-B847-1970D79FF6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="寻路过程" sheetId="3" r:id="rId1"/>
@@ -18,6 +17,8 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
     <sheet name="鼠标点击地面移动" sheetId="5" r:id="rId5"/>
+    <sheet name="移动碰撞" sheetId="6" r:id="rId6"/>
+    <sheet name="路径查询几种方式" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="125">
   <si>
     <t>UMovementComponent</t>
   </si>
@@ -328,13 +329,149 @@
   </si>
   <si>
     <t>AR移动？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动过程中有碰撞得话，就移动不了了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Scope for move flags</t>
+  </si>
+  <si>
+    <t>// Conditionally ignore blocking overlaps (based on CVar)</t>
+  </si>
+  <si>
+    <t>const EMoveComponentFlags IncludeBlockingOverlapsWithoutEvents = (MOVECOMP_NeverIgnoreBlockingOverlaps | MOVECOMP_DisableBlockingOverlapDispatch);</t>
+  </si>
+  <si>
+    <t>TGuardValue&lt;EMoveComponentFlags&gt; ScopedFlagRestore(MoveComponentFlags, MovementComponentCVars::MoveIgnoreFirstBlockingOverlap ? MoveComponentFlags : (MoveComponentFlags | IncludeBlockingOverlapsWithoutEvents));</t>
+  </si>
+  <si>
+    <t>bMoveResult = MoveUpdatedComponent(Delta, NewRotation, bSweep, &amp;OutHit, Teleport);</t>
+  </si>
+  <si>
+    <t>这个地方设置得，无法忽略碰撞之类等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能依靠Sweep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部会根据Start和End，计算碰撞，有碰撞就移动不了了，除非设置Sweep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const bool bSkipPhysicsMove = ((MoveFlags &amp; MOVECOMP_SkipPhysicsMove) != MOVECOMP_NoFlags);</t>
+  </si>
+  <si>
+    <t>是否跳过底层Phyis得位置更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举个例子：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAIController::MoveTo(const FAIMoveRequest&amp; MoveRequest, FNavPathSharedPtr* OutPath)</t>
+  </si>
+  <si>
+    <t>AI想让对象移动到目的地，存储在MoveRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const bool bValidQuery = BuildPathfindingQuery(MoveRequest, PFQuery);</t>
+  </si>
+  <si>
+    <t>if (bValidQuery)</t>
+  </si>
+  <si>
+    <t>FNavPathSharedPtr Path;</t>
+  </si>
+  <si>
+    <t>FindPathForMoveRequest(MoveRequest, PFQuery, Path);</t>
+  </si>
+  <si>
+    <t>const FAIRequestID RequestID = Path.IsValid() ? RequestMove(MoveRequest, Path) : FAIRequestID::InvalidRequest;</t>
+  </si>
+  <si>
+    <t>if (RequestID.IsValid())</t>
+  </si>
+  <si>
+    <t>bAllowStrafe = MoveRequest.CanStrafe();</t>
+  </si>
+  <si>
+    <t>ResultData.MoveId = RequestID;</t>
+  </si>
+  <si>
+    <t>ResultData.Code = EPathFollowingRequestResult::RequestSuccessful;</t>
+  </si>
+  <si>
+    <t>if (OutPath)</t>
+  </si>
+  <si>
+    <t>*OutPath = Path;</t>
+  </si>
+  <si>
+    <t>void AAIController::FindPathForMoveRequest(const FAIMoveRequest&amp; MoveRequest, FPathFindingQuery&amp; Query, FNavPathSharedPtr&amp; OutPath) const</t>
+  </si>
+  <si>
+    <t>查找路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPathFindingResult PathResult = NavSys-&gt;FindPathSync(Query);</t>
+  </si>
+  <si>
+    <t>开始查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPathFindingResult UNavigationSystemV1::FindPathSync(FPathFindingQuery Query, EPathFindingMode::Type Mode)</t>
+  </si>
+  <si>
+    <t>FPathFindingResult Result(ENavigationQueryResult::Error);</t>
+  </si>
+  <si>
+    <t>if (Query.NavData.IsValid())</t>
+  </si>
+  <si>
+    <t>if (Mode == EPathFindingMode::Regular)</t>
+  </si>
+  <si>
+    <t>Result = Query.NavData-&gt;FindPath(Query.NavAgentProperties, Query);</t>
+  </si>
+  <si>
+    <t>else // EPathFindingMode::Hierarchical</t>
+  </si>
+  <si>
+    <t>Result = Query.NavData-&gt;FindHierarchicalPath(Query.NavAgentProperties, Query);</t>
+  </si>
+  <si>
+    <t>FPathFindingResult AAbstractNavData::FindPathAbstract(const FNavAgentProperties&amp; AgentProperties, const FPathFindingQuery&amp; Query)</t>
+  </si>
+  <si>
+    <t>实现方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最简单得处理，不寻路，直接返回开始和结束坐标点（不计算可行走）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他方式，使用recast计算行走路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -715,7 +852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -813,7 +950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -976,10 +1113,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -1181,7 +1318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA7B43D-B8FB-4C15-97F5-57B6900BC716}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1203,7 +1340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F791FEED-209F-471A-858B-80CB09C01496}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1237,4 +1374,334 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:O58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C29" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D31" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>118</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C53" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>